--- a/Lab3_Uzduotys.xlsx
+++ b/Lab3_Uzduotys.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matas\Desktop\DS2019\Nauji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universitetas\ANTRAS-KURSAS\Duomenu-Struktura\Duom-Strukt-Lab3\LAB3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860E5897-AF6C-4F7A-B60F-981F5C31733E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13785"/>
+    <workbookView xWindow="-19320" yWindow="600" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studentai" sheetId="7" r:id="rId1"/>
@@ -1217,7 +1218,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1329,7 +1330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1367,9 +1368,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed"/>
     </xf>
@@ -1378,6 +1376,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1473,6 +1488,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1508,6 +1540,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1683,12 +1732,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B291" sqref="B291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9984,7 +10033,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J6" r:id="rId1"/>
+    <hyperlink ref="J6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -9992,12 +10041,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10022,25 +10071,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="27" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -10051,50 +10100,50 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="7"/>
       <c r="C5" s="9" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="24">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="26" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="27" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="24">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="18" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="28" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="22">
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -10105,14 +10154,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="7"/>
       <c r="C11" s="18" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="22">
         <v>6</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -10123,37 +10172,37 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="21"/>
+      <c r="C14" s="20"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>7</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="24">
+        <v>7</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="27" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="22">
         <v>8</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -10164,14 +10213,14 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="7"/>
       <c r="C18" s="9" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="22">
         <v>9</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -10182,14 +10231,14 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="A21" s="22">
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -10200,27 +10249,27 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="7"/>
       <c r="C22" s="9" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="24">
         <v>11</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27" t="s">
         <v>385</v>
       </c>
     </row>
@@ -10241,31 +10290,36 @@
     <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="21"/>
     </row>
     <row r="38" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
+      <c r="A38" s="21"/>
     </row>
     <row r="39" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
+      <c r="A39" s="21"/>
     </row>
     <row r="40" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
+      <c r="A40" s="21"/>
     </row>
     <row r="41" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
+      <c r="A41" s="21"/>
     </row>
     <row r="42" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
+      <c r="A42" s="21"/>
     </row>
     <row r="43" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
+      <c r="A43" s="21"/>
     </row>
     <row r="44" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
+      <c r="A44" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A37:A38"/>
@@ -10277,11 +10331,6 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10289,22 +10338,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -10312,7 +10363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -10329,7 +10380,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -10346,24 +10397,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -10380,7 +10432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -10397,7 +10449,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -10414,24 +10466,25 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -10448,7 +10501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -10465,7 +10518,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>

--- a/Lab3_Uzduotys.xlsx
+++ b/Lab3_Uzduotys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universitetas\ANTRAS-KURSAS\Duomenu-Struktura\Duom-Strukt-Lab3\LAB3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860E5897-AF6C-4F7A-B60F-981F5C31733E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1859EAF-4DA7-4EF8-B41C-DE9840443212}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="600" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studentai" sheetId="7" r:id="rId1"/>
@@ -1297,7 +1297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1316,6 +1316,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1330,7 +1336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1368,6 +1374,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed"/>
     </xf>
@@ -1377,23 +1400,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipersaitas" xfId="1" builtinId="8"/>
@@ -1736,8 +1750,8 @@
   <dimension ref="A1:U354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B291" sqref="B291"/>
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K296" sqref="K296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10046,7 +10060,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10074,53 +10088,53 @@
       <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="22" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="24">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
-        <v>3</v>
-      </c>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="29">
+        <v>3</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="31" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="27" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="32" t="s">
         <v>388</v>
       </c>
     </row>
@@ -10128,22 +10142,22 @@
       <c r="A8" s="24">
         <v>4</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="23" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+      <c r="A10" s="25">
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -10154,14 +10168,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="7"/>
       <c r="C11" s="18" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="25">
         <v>6</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -10172,37 +10186,37 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="26" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="27"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>7</v>
-      </c>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="29">
+        <v>7</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="27" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="32" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="25">
         <v>8</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -10213,32 +10227,32 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="7"/>
       <c r="C18" s="9" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
-        <v>9</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="24">
+        <v>9</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="9" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="22" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="25">
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -10249,7 +10263,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="7"/>
       <c r="C22" s="9" t="s">
         <v>384</v>
@@ -10259,17 +10273,17 @@
       <c r="A23" s="24">
         <v>11</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22" t="s">
         <v>385</v>
       </c>
     </row>
@@ -10290,36 +10304,31 @@
     <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+      <c r="A37" s="28"/>
     </row>
     <row r="38" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
+      <c r="A38" s="28"/>
     </row>
     <row r="39" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
+      <c r="A39" s="28"/>
     </row>
     <row r="40" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
+      <c r="A40" s="28"/>
     </row>
     <row r="41" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
+      <c r="A41" s="28"/>
     </row>
     <row r="42" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
+      <c r="A42" s="28"/>
     </row>
     <row r="43" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
+      <c r="A43" s="28"/>
     </row>
     <row r="44" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
+      <c r="A44" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A37:A38"/>
@@ -10331,6 +10340,11 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10342,7 +10356,7 @@
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10404,7 +10418,7 @@
       <c r="B6" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="19" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -10473,7 +10487,7 @@
       <c r="B10" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="19" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
